--- a/Output/June/productivity_agent_valid/productivity_agent_2022-06-02_valid.xlsx
+++ b/Output/June/productivity_agent_valid/productivity_agent_2022-06-02_valid.xlsx
@@ -1763,7 +1763,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>89.58333333333334</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0</v>
+        <v>1.194444444444445</v>
       </c>
       <c r="CI3">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.541947562926584</v>
+        <v>1.014475035454057</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -2714,7 +2714,7 @@
         <v>0.9904761904761905</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>33.21428571428572</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.4428571428571429</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.8596233312142402</v>
+        <v>0.9192387158296248</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -17930,7 +17930,7 @@
         <v>0.6738703339882122</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>70.44534412955464</v>
       </c>
       <c r="AW54">
         <v>0</v>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="CH54">
-        <v>0</v>
+        <v>0.9392712550607285</v>
       </c>
       <c r="CI54">
         <v>0</v>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.09686046791798182</v>
+        <v>0.7732453075681276</v>
       </c>
     </row>
     <row r="55" spans="1:105">
